--- a/pred_ohlcv/54_21/2020-01-15 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 OCN ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>29117574.35241612</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24625119.19901612</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>22835970.13971612</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>21580042.13971612</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>18820513.27381612</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>20069335.39791612</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>19661742.72221612</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>17186838.41581612</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>12843383.52056647</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>14398311.71006647</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>14229036.71006647</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>13674923.49826647</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>15047758.79856647</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>14963494.29356647</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15903003.29356647</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15891591.97866647</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>15892702.97866647</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 OCN ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>29215698.35241612</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>29117574.35241612</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>31662344.17711612</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24625119.19901612</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>22835970.13971612</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>21580042.13971612</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>18820513.27381612</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>20069335.39791612</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>19661742.72221612</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>17186838.41581612</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3792541.26616647</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4401543.31086647</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>9386411.83796647</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>9386411.83796647</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>12893308.52056647</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>14398311.71006647</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>14229036.71006647</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>13876995.33706647</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>14032457.33706647</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>15047758.79856647</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>14972758.79856647</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>14963494.29356647</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>15901892.29356647</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15903003.29356647</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15891591.97866647</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>15892702.97866647</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
